--- a/Tabela/Cabo Frio/Cabo Frio-10.xlsx
+++ b/Tabela/Cabo Frio/Cabo Frio-10.xlsx
@@ -14,330 +14,387 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
-  <si>
-    <t>R$ 493.233</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="127">
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>Um condomínio clube completo a 100 metros da Praia de Itapoã, próximo à melhor infraestrutura do bairro: restaurantes, farmácias, supermercados e muito mais. Duas torres exclusivas...</t>
+    <t>na planta</t>
   </si>
   <si>
     <t>super destaque</t>
   </si>
   <si>
-    <t>R$ 235.000</t>
-  </si>
-  <si>
-    <t>R$ 283.000</t>
-  </si>
-  <si>
-    <t>R$ 290.000</t>
-  </si>
-  <si>
-    <t>R$ 174.900</t>
-  </si>
-  <si>
-    <t>R$ 399.990</t>
-  </si>
-  <si>
-    <t>R$ 219.999</t>
-  </si>
-  <si>
-    <t>R$ 400.000</t>
+    <t>R$ 130.000</t>
+  </si>
+  <si>
+    <t>R$ 142.000</t>
+  </si>
+  <si>
+    <t>R$ 190.000</t>
+  </si>
+  <si>
+    <t>R$ 280.000</t>
+  </si>
+  <si>
+    <t>R$ 135.000</t>
+  </si>
+  <si>
+    <t>destaque</t>
+  </si>
+  <si>
+    <t>R$ 230.000</t>
+  </si>
+  <si>
+    <t>R$ 260.000</t>
+  </si>
+  <si>
+    <t>R$ 105.000</t>
+  </si>
+  <si>
+    <t>R$ 215.000</t>
+  </si>
+  <si>
+    <t>R$ 220.000</t>
+  </si>
+  <si>
+    <t>R$ 1.900.000</t>
+  </si>
+  <si>
+    <t>R$ 600.000</t>
   </si>
   <si>
     <t>R$ 120.000</t>
   </si>
   <si>
-    <t>R$ 160.000</t>
-  </si>
-  <si>
-    <t>R$ 685.000</t>
+    <t>R$ 500.000</t>
+  </si>
+  <si>
+    <t>A casa no bairro Nova Califórnia (Tamoios) tem 200 metros quadrados composta por:</t>
+  </si>
+  <si>
+    <t>OPORTUNIDADE ÚNICA</t>
+  </si>
+  <si>
+    <t>TBF - Linda Casa em Tamoios 2⁰ Distrito de Cabo Frio</t>
+  </si>
+  <si>
+    <t>Linda Casa em Tamoios 2⁰ Distrito de Cabo Frio</t>
+  </si>
+  <si>
+    <t>CA 3087</t>
+  </si>
+  <si>
+    <t>A Imobiliária Confiança Oferece uma Excelente Oportunidade!!</t>
+  </si>
+  <si>
+    <t>M.CARVALHO IMOVEIS VENDE</t>
   </si>
   <si>
     <t>R$ 170.000</t>
   </si>
   <si>
-    <t>R$ 299.999</t>
-  </si>
-  <si>
-    <t>R$ 240.000</t>
-  </si>
-  <si>
-    <t>R$ 220.000</t>
-  </si>
-  <si>
-    <t>destaque</t>
+    <t>R$ 195.000</t>
+  </si>
+  <si>
+    <t>Maravilhosa casa 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 140</t>
+  </si>
+  <si>
+    <t>Sua oportunidade de morar na região dos Lago está na aqui IMOBILIÁRIA CONFIANÇA.</t>
+  </si>
+  <si>
+    <t>Realize o Seu sonho da Sua Casa de Praia 🔑🏠🏖️</t>
+  </si>
+  <si>
+    <t>Imóvel Localizado a 50 m² da Rodovia em Unamar - Região dos lagos Por 215 mil só a vista .</t>
+  </si>
+  <si>
+    <t>IPTU R$ 300</t>
+  </si>
+  <si>
+    <t>Excelente propriedade no Jardim Esperança próxima a diversos comércios. Nela contém 2 casas construídas, casa principal com 2 quartos, sendo 1 suíte, 1 banheiro social, área de ser...</t>
+  </si>
+  <si>
+    <t>O Taj Home Resort foi inspirado na arquitetura luxuosa e disruptiva de Dubai, um modelo de construção nunca antes visto no Espírito Santo. O empreendimento possui duas torres impon...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 650</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
+  </si>
+  <si>
+    <t>Ótimo Apartamento no Algodoal !</t>
+  </si>
+  <si>
+    <t>Sala com cozinha americana</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Bela casa de 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Belíssima casa moderna com 2 quartos, área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Casa com 3 quartos com piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Excelente casa com 3 quartos sendo 1 suíte, sala, cozinha americana, banheiro social, piscina, área gourmet, área de serviço, vaga para 3 carros!</t>
+  </si>
+  <si>
+    <t>Excelente Casa na Região Dos Lagos.</t>
+  </si>
+  <si>
+    <t>Cresci RJ-008451/O</t>
+  </si>
+  <si>
+    <t>A casa está localizado no bairro Samburá (Tamoios) com 65 metros quadrados com 2 quartos sendo 1 suite e 2 banheiros, com area gourmet.</t>
   </si>
   <si>
     <t>mais</t>
   </si>
   <si>
-    <t>R$ 510.000</t>
-  </si>
-  <si>
-    <t>R$ 900.000</t>
-  </si>
-  <si>
-    <t>R$ 119.999</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO : CA0423 / 29120</t>
-  </si>
-  <si>
-    <t>Linda casa pronta para morar com 3 quartos, piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>condomínio R$ 150 IPTU R$ 480</t>
-  </si>
-  <si>
-    <t>M.CARVALHO IMOVEIS VENDE</t>
-  </si>
-  <si>
-    <t>Excelente casa de 3 quartos com piscina de alvenaria e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Maravilhosa casa de 2 quartos sendo 1 suíte, com piscina e área gourmet em Unamar - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Linda casa de 3 quartos com piscina de alvenaria e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>M.CARVALHO IMÓVEIS VENDE</t>
-  </si>
-  <si>
-    <t>Excelente imóvel na rua tubarão em Unamar / Cabo Frio- RJ</t>
-  </si>
-  <si>
-    <t>condomínio R$ 730 IPTU R$ 1.248</t>
-  </si>
-  <si>
-    <t>Entre em contato no meu zap (21) 98021.1259 ou informe seu contato com ddd aqui neste site na opção "Contatar anunciante". Excelente imóveis na região Jacaré . A vista R$ 160 mil o...</t>
-  </si>
-  <si>
-    <t>Linda casa pronta para morar com 2 quartos sendo 1 suíte em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>M.Carvalho Imoveis vende</t>
-  </si>
-  <si>
-    <t>A casa no bairro Unamar (Tamoios) com 210 metros quadrados com 3 quartos sendo 1 suite e 3 banheiros</t>
-  </si>
-  <si>
-    <t>Linda casa com 3 quartos com piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>condomínio R$ 160</t>
-  </si>
-  <si>
-    <t>Maravilhosa casa de 2 quartos sendo 1 suíte, com piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>R$ 150.000</t>
-  </si>
-  <si>
-    <t>Avenida da Praia, Praia de Itaparica</t>
-  </si>
-  <si>
-    <t>Excelente lançamento em cabo frio, Edifício com toda infraestrutura, Apartamento residencial para Venda</t>
-  </si>
-  <si>
-    <t>Casa muito bem localizada, linear com 03 quartos sendo 01 suíte, sala, cozinha, área de serviço, dependência, lindo quintal com jardim, garagem para uns 5 carros - Atualizado em: -</t>
-  </si>
-  <si>
-    <t>Excelente casa de 2 quartos, piscina e área gourmet em Unamar - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Leal Imóveis vende:</t>
-  </si>
-  <si>
-    <t>vendo Excelente Apartamento na Praia do forte em Cabo Frio:</t>
-  </si>
-  <si>
-    <t>Imovel Grande, prox.de Praia e comercios.</t>
-  </si>
-  <si>
-    <t>A casa no bairro Nova Califórnia (Tamoios) tem 120 metros quadrados com 2 quartos sendo 1 suite e 3 banheiros</t>
-  </si>
-  <si>
-    <t>IPTU R$ 420</t>
+    <t>Excelente apto localizado a meia quadra da Praia do Forte, atrás do Hotel Malibu.</t>
+  </si>
+  <si>
+    <t>CRECI/RJ: 075.292</t>
+  </si>
+  <si>
+    <t>2:quartos sendo 1 suíte</t>
+  </si>
+  <si>
+    <t>Excelente casa composta por</t>
+  </si>
+  <si>
+    <t>☑️Casa possui 2 quartos 1 suíte</t>
+  </si>
+  <si>
+    <t>- Localização: Unamar - PRONTA ENTREGA</t>
+  </si>
+  <si>
+    <t>Sua oportunidade de morar na região dos Lagos está esperando o quê? Venha realizar seu sonho.</t>
+  </si>
+  <si>
+    <t>Informações de imóvel á Vendas na Região dos Lagos Unamar -Cabo Frio/RJ</t>
+  </si>
+  <si>
+    <t>OTIMA OPORTUNIDADE...... CONDOMINIO GRAVATÁ I....EXCELENTE IMÓVEL, LOCALIZAÇÃO PRIVILEGIADA PELA NATUREZA COM MUITAS ARVORES, 5 MINUTOS DAS PRAIAS.....</t>
+  </si>
+  <si>
+    <t>Terreno de 500m²</t>
+  </si>
+  <si>
+    <t>Imóvel constituído por:</t>
+  </si>
+  <si>
+    <t>Jardim Esperanca, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Rodovia do Sol, Jockey de Itaparica</t>
+  </si>
+  <si>
+    <t>Melhor localização da Praia do Forte, rodeado de restaurantes, bares, sorveteria, farmácia, pad...</t>
+  </si>
+  <si>
+    <t>COMPOSTO POR: 2 Quartos, banheiro social, área de serviço, todo mobiliado e garagem para 1 carro.]]&gt;</t>
+  </si>
+  <si>
+    <t>Banheiro social</t>
+  </si>
+  <si>
+    <t>☑️Sala</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóv...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Localizado...</t>
+  </si>
+  <si>
+    <t>OBS: ( DEIXE SEU NÚMERO COM DDD ,A GENTE LIGA PRA VOCÊ )</t>
+  </si>
+  <si>
+    <t>2 Quartos sendo 1 Suíte</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Sambura Tamoios</t>
+  </si>
+  <si>
+    <t>300 m²</t>
+  </si>
+  <si>
+    <t>156 - 176 m²</t>
+  </si>
+  <si>
+    <t>Cód: JMC-076-3</t>
+  </si>
+  <si>
+    <t>Área de serviço...</t>
+  </si>
+  <si>
+    <t>2 quartos 1 Suíte</t>
+  </si>
+  <si>
+    <t>☑️Cozinha americana</t>
+  </si>
+  <si>
+    <t>- Dois quartos, sendo 1 suíte;</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>Casa possui 2 quartos</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Unamar</t>
+  </si>
+  <si>
+    <t>CREC...</t>
+  </si>
+  <si>
+    <t>CRECI/RJ...</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>65 m²</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3 - 4</t>
+  </si>
+  <si>
+    <t>Praia do Forte, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Algodoal, Cabo Frio</t>
+  </si>
+  <si>
+    <t>☑️Banheiro 3</t>
+  </si>
+  <si>
+    <t>- Banheiro social;</t>
+  </si>
+  <si>
+    <t>100 m²</t>
+  </si>
+  <si>
+    <t>Rua Bom Pastor, Unamar</t>
+  </si>
+  <si>
+    <t>Ótima Oportunidade pra você adquirir...</t>
+  </si>
+  <si>
+    <t>Cozinha</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>83 m²</t>
   </si>
   <si>
-    <t>Braga, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora d...</t>
-  </si>
-  <si>
-    <t>Imóvel em Unamar – Cabo Frio/RJ</t>
-  </si>
-  <si>
-    <t>RESIDENCIAL GRAVATÁ, OPORTUNIDADE UNICA......... IMÓVEL LUXO, ALTO PADRÃO, OTIMA LOCALIZAÇÃO A 15 MINUTOS DA PRAIA, COMERCIO PERTINHO, TRANSPORTE,...</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora...</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Im...</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de I...</t>
-  </si>
-  <si>
-    <t>RESIDENCIAL GRAVATÁ, EXCELENTE IMOVEL BEM LOCALIZADO EM AREA NOBRE DE UNAMAR,,,,PERTINHO DA PRAIA DO CORAL , COMERCIO, SHOPPING, HOSPITAL DE TAMOIOS...</t>
-  </si>
-  <si>
-    <t>Que bom que chegou até aqui, estava te esperando para lhe apresentar uma das melhores oportunidades de Imóvel na r...</t>
-  </si>
-  <si>
-    <t>Jacare, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis&lt;...</t>
-  </si>
-  <si>
-    <t>perto do shopping, e da area de eventos, escolas, bancos e hospital.</t>
-  </si>
-  <si>
-    <t>Rua Orlando Bragança, Unamar</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corret...</t>
-  </si>
-  <si>
-    <t>Vendo uma casa na praia na rua Cabo Frio em tamoios Cabo Frio ,ótima localização a 10 minutos ape da rodovia Amaral Peixoto e a praia, pertinho de tudo, hospital, creche, escolas,...</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2 dormitórios sendo 2 suíte, 1 sala, 2 banheiros, lav...</t>
-  </si>
-  <si>
-    <t>Condomínio : Gravatá I</t>
-  </si>
-  <si>
-    <t>Código: CA0133</t>
-  </si>
-  <si>
-    <t>Apartamento com 86m² cabo Frio, composta de 02 quartos, sendo 01 suíte, sala ampla com 02 ambientes com rebaixame...</t>
+    <t>CASA COM 2 QUARTOS, SALA, COZINHA AMERICANA, BANHE...</t>
+  </si>
+  <si>
+    <t>Rua das Pacas, Nova California Tamoios</t>
+  </si>
+  <si>
+    <t>Cozinha americana</t>
+  </si>
+  <si>
+    <t>☑️Garagem para 3 carro</t>
+  </si>
+  <si>
+    <t>- Sala, cozinha, área...</t>
+  </si>
+  <si>
+    <t>- 03 quartos</t>
+  </si>
+  <si>
+    <t>95 m²</t>
+  </si>
+  <si>
+    <t>70 m²</t>
+  </si>
+  <si>
+    <t>500 m²</t>
+  </si>
+  <si>
+    <t>área d...</t>
   </si>
   <si>
     <t>200 m²</t>
   </si>
   <si>
-    <t>210 m²</t>
-  </si>
-  <si>
-    <t>CR...</t>
+    <t>2 banheiros</t>
+  </si>
+  <si>
+    <t>☑️Chuvei...</t>
+  </si>
+  <si>
+    <t>- Suíte</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>71 m²</t>
+  </si>
+  <si>
+    <t>134 m²</t>
+  </si>
+  <si>
+    <t>Área de serviço</t>
   </si>
   <si>
     <t>Unamar, Cabo Frio</t>
   </si>
   <si>
-    <t>360 m²</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 0...</t>
-  </si>
-  <si>
-    <t>Avenida Independência, Unamar</t>
-  </si>
-  <si>
-    <t>Casa composta por 1 sala, 3 quartos sendo 2 suítes, 1 cozinha, 1 banheiro social, área de serviço, varan...</t>
-  </si>
-  <si>
-    <t>Travessa Ana Maria Machado, Unamar</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Sendo: 03 quartos / 03 suítes /...</t>
-  </si>
-  <si>
-    <t>120 m²</t>
-  </si>
-  <si>
-    <t>Rua Cabo Frio, Aquariús</t>
-  </si>
-  <si>
-    <t>Rua Antônio Duarte Guimarães, Braga</t>
-  </si>
-  <si>
-    <t>MAGDALA FURTADO IMOBILIARIA VENDE :</t>
-  </si>
-  <si>
-    <t>121 m²</t>
-  </si>
-  <si>
-    <t>90 m²</t>
-  </si>
-  <si>
-    <t>201 m²</t>
-  </si>
-  <si>
-    <t>100 m²</t>
-  </si>
-  <si>
-    <t>85 m²</t>
+    <t>- Sala</t>
+  </si>
+  <si>
+    <t>59 m²</t>
   </si>
   <si>
     <t>60 m²</t>
   </si>
   <si>
-    <t>Rua Barão do Rio Branco, Passagem</t>
-  </si>
-  <si>
-    <t>70 m²</t>
-  </si>
-  <si>
-    <t>101 m²</t>
-  </si>
-  <si>
-    <t>103 m²</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Rua dos Planetas, Verao Vermelho Tamoios</t>
-  </si>
-  <si>
-    <t>86 m²</t>
-  </si>
-  <si>
-    <t>164 m²</t>
-  </si>
-  <si>
-    <t>61 m²</t>
-  </si>
-  <si>
-    <t>composta por: 2 quartos sendo 1 suite, sala , cozinha, banhei...</t>
-  </si>
-  <si>
-    <t>192 m²</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Nova California Tamoios, Cabo Frio</t>
-  </si>
-  <si>
-    <t>183 m²</t>
+    <t>51 m²</t>
+  </si>
+  <si>
+    <t>Varanda</t>
+  </si>
+  <si>
+    <t>- Cozinha...</t>
+  </si>
+  <si>
+    <t>80 m²</t>
+  </si>
+  <si>
+    <t>Área gourmet</t>
+  </si>
+  <si>
+    <t>Pis...</t>
+  </si>
+  <si>
+    <t>115 m²</t>
   </si>
 </sst>
 </file>
@@ -695,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -750,78 +807,60 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,31 +871,37 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
         <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -867,37 +912,40 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>96</v>
+      </c>
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -905,40 +953,37 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -946,34 +991,43 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>96</v>
+      </c>
+      <c r="M7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -981,43 +1035,64 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" t="s">
         <v>81</v>
       </c>
-      <c r="M8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S8" t="s">
+        <v>96</v>
+      </c>
+      <c r="T8" t="s">
+        <v>96</v>
+      </c>
+      <c r="U8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1025,34 +1100,49 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1060,34 +1150,43 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
         <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>116</v>
+      </c>
+      <c r="M10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1095,34 +1194,43 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="M11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1130,34 +1238,49 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>117</v>
+      </c>
+      <c r="M12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" t="s">
+        <v>112</v>
+      </c>
+      <c r="S12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1165,34 +1288,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
         <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>118</v>
+      </c>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1200,34 +1329,34 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
         <v>92</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1235,37 +1364,40 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>86</v>
+      </c>
+      <c r="N15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1273,31 +1405,37 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
         <v>81</v>
       </c>
-      <c r="I16" t="s">
-        <v>67</v>
-      </c>
       <c r="J16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>104</v>
+      </c>
+      <c r="K16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1305,34 +1443,40 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
+      <c r="E17" t="s">
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>86</v>
+      </c>
+      <c r="M17" t="s">
+        <v>112</v>
+      </c>
+      <c r="N17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1340,40 +1484,37 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s">
-        <v>104</v>
-      </c>
-      <c r="N18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1381,31 +1522,40 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>106</v>
+      </c>
+      <c r="K19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1413,37 +1563,40 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>64</v>
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>112</v>
+      </c>
+      <c r="N20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1451,34 +1604,40 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="L21" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1486,34 +1645,46 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
         <v>95</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="L22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>116</v>
+      </c>
+      <c r="M22" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1521,34 +1692,63 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" t="s">
-        <v>67</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
